--- a/Data/euro22_tessa.xlsx
+++ b/Data/euro22_tessa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7744DC-916F-42BB-8F21-031DB4FBF9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762EE91-BD5F-459C-9725-1AE8E8B23F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="17625" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Beth Mead</t>
   </si>
   <si>
-    <t>Lea Schüller</t>
-  </si>
-  <si>
     <t>Tessa</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Mestari</t>
+  </si>
+  <si>
+    <t>Lea Schuller</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -960,19 +960,19 @@
         <v>17</v>
       </c>
       <c r="L4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1050,11 +1050,11 @@
       <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="J7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>27</v>
+      <c r="J7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>9</v>
       </c>
       <c r="N7" s="11"/>
       <c r="Q7" s="34" t="s">
@@ -1086,11 +1086,11 @@
       <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>12</v>
+      <c r="J8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="N8" s="11"/>
       <c r="Q8" s="34" t="s">
@@ -1122,11 +1122,11 @@
       <c r="H9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>32</v>
+      <c r="J9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="N9" s="11"/>
       <c r="Q9" s="40" t="s">
@@ -1158,11 +1158,11 @@
       <c r="H10" s="29">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>9</v>
+      <c r="J10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="N10" s="11"/>
     </row>
